--- a/khor/reports-information/res.xlsx
+++ b/khor/reports-information/res.xlsx
@@ -210,12 +210,64 @@
     <row>
       <c t="inlineStr">
         <is>
-          <t>EMP 53</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>marianahernandez</t>
+          <t>EMP 57</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>edu melgoza </t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>Sesión para M</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+    </row>
+    <row>
+      <c t="inlineStr">
+        <is>
+          <t>EMP 57</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>edu melgoza </t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>Sesión para M</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>9.5</t>
         </is>
       </c>
     </row>
